--- a/ExcelConverter/template/schema_xlsx.xlsx
+++ b/ExcelConverter/template/schema_xlsx.xlsx
@@ -59,7 +59,7 @@
     <t>756984254966</t>
   </si>
   <si>
-    <t>ЧП</t>
+    <t>ИП</t>
   </si>
   <si>
     <t>Стиль</t>
@@ -570,7 +570,7 @@
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A:A"/>
+      <selection activeCell="E10" activeCellId="0" pane="topLeft" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -675,7 +675,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>345679247</v>
+        <v>34567924</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>297564358914</v>
